--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/140.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/140.xlsx
@@ -479,13 +479,13 @@
         <v>-0.06411175226426087</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.456901720580937</v>
+        <v>-2.475364019466101</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1451175497407426</v>
+        <v>-0.1700090224795076</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05993900162330799</v>
+        <v>0.05319876822456521</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.04755861962538326</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.559492818092667</v>
+        <v>-2.584611791243859</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2196840119972532</v>
+        <v>-0.2344135963407188</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04611514948481326</v>
+        <v>0.03951519784172253</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.03376060092262675</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.735155462282199</v>
+        <v>-2.769983152765866</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.240775068999201</v>
+        <v>-0.249969623201178</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06364670941725944</v>
+        <v>0.0562800874834964</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.02605007446085006</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.921459392518953</v>
+        <v>-2.956276104430439</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2408098344777756</v>
+        <v>-0.2439795922348353</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09030085291182632</v>
+        <v>0.08406563383343092</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.02052800504305701</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.105863114887299</v>
+        <v>-3.138777789168347</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2368057052349246</v>
+        <v>-0.2306040317937504</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09226845701501556</v>
+        <v>0.08226392815431716</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.01244485571663794</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.997710455684642</v>
+        <v>-3.016350851407416</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2053386776801388</v>
+        <v>-0.1912147445686841</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1010933992868832</v>
+        <v>0.09453797185319508</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.004341667013555478</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.785692269716189</v>
+        <v>-2.79856403567828</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.2530607011909372</v>
+        <v>-0.2331461811744363</v>
       </c>
       <c r="G8" t="n">
-        <v>0.136104675894252</v>
+        <v>0.1273681721205128</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.03378331983047998</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.319144426609944</v>
+        <v>-2.329642991218808</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.283965991802438</v>
+        <v>-0.2636690515216161</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1543004394436768</v>
+        <v>0.1469612639403674</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.0823237441230999</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.897818542160506</v>
+        <v>-1.90131582732098</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.3801517023669602</v>
+        <v>-0.3538915676295726</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2109498719000364</v>
+        <v>0.206847545428229</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.1556199618765803</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.376218648850304</v>
+        <v>-1.380388676517231</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5027402691072291</v>
+        <v>-0.475215158886266</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2827076494401222</v>
+        <v>0.2803673838034399</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.2635473971296585</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.7976161790119057</v>
+        <v>-0.8017069169908549</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.8598573642326915</v>
+        <v>-0.8295302784227478</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3289091407037876</v>
+        <v>0.3271269524863297</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.4133477052160885</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2358182436592695</v>
+        <v>-0.2487534413717424</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.183419063406183</v>
+        <v>-1.143078299925389</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3902397143541885</v>
+        <v>0.3904727040527063</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.608535949670674</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4277516657362244</v>
+        <v>0.4214792414965473</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.515561126660166</v>
+        <v>-1.469220573482202</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5737209316989533</v>
+        <v>0.5780745454895809</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.8407008289427222</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9637737433688108</v>
+        <v>0.9595500426823306</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.84281894513475</v>
+        <v>-1.80060023589025</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6491864170329905</v>
+        <v>0.65625173815244</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.098268251686073</v>
       </c>
       <c r="E16" t="n">
-        <v>1.549220743041676</v>
+        <v>1.54060561348261</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.15672742975735</v>
+        <v>-2.112488053310783</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7583384312644997</v>
+        <v>0.7637118324266501</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.360783091886175</v>
       </c>
       <c r="E17" t="n">
-        <v>2.098254868392006</v>
+        <v>2.084445654349753</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.509037740029361</v>
+        <v>-2.464413503635766</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8425690866440833</v>
+        <v>0.8420110092248588</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.608026703903132</v>
       </c>
       <c r="E18" t="n">
-        <v>2.48021525252277</v>
+        <v>2.457307851745466</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.83615405690694</v>
+        <v>-2.788809574295048</v>
       </c>
       <c r="G18" t="n">
-        <v>1.031695119852151</v>
+        <v>1.033482187435023</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.820758845682128</v>
       </c>
       <c r="E19" t="n">
-        <v>2.687752961199832</v>
+        <v>2.656526242391684</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.162304869353227</v>
+        <v>-3.108068893014759</v>
       </c>
       <c r="G19" t="n">
-        <v>1.138514187495099</v>
+        <v>1.145349568519415</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.985819190222845</v>
       </c>
       <c r="E20" t="n">
-        <v>3.019793777621474</v>
+        <v>2.987053235693639</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.516494650190637</v>
+        <v>-3.45537144957033</v>
       </c>
       <c r="G20" t="n">
-        <v>1.276839317616145</v>
+        <v>1.276341012423241</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.093895897104618</v>
       </c>
       <c r="E21" t="n">
-        <v>3.342083182263269</v>
+        <v>3.302556662885935</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.795624542944047</v>
+        <v>-3.730546311695368</v>
       </c>
       <c r="G21" t="n">
-        <v>1.466583810390435</v>
+        <v>1.467352310443138</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.146816083304321</v>
       </c>
       <c r="E22" t="n">
-        <v>3.526602484599859</v>
+        <v>3.496715151597851</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.008489603772165</v>
+        <v>-3.941804536500592</v>
       </c>
       <c r="G22" t="n">
-        <v>1.517636610716955</v>
+        <v>1.510876859856556</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.151195940065386</v>
       </c>
       <c r="E23" t="n">
-        <v>3.698687944020263</v>
+        <v>3.666509748956389</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.222975833759079</v>
+        <v>-4.151186340343802</v>
       </c>
       <c r="G23" t="n">
-        <v>1.632248024926036</v>
+        <v>1.631285570098127</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.116486079421028</v>
       </c>
       <c r="E24" t="n">
-        <v>3.777898342309534</v>
+        <v>3.745518873422333</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.411069271261412</v>
+        <v>-4.329254511682428</v>
       </c>
       <c r="G24" t="n">
-        <v>1.670086893790809</v>
+        <v>1.671229275218358</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.050883456702184</v>
       </c>
       <c r="E25" t="n">
-        <v>3.861992985378202</v>
+        <v>3.827600778257733</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.48101863399494</v>
+        <v>-4.396922161164241</v>
       </c>
       <c r="G25" t="n">
-        <v>1.704013121514243</v>
+        <v>1.699858341864235</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.966309123542067</v>
       </c>
       <c r="E26" t="n">
-        <v>3.794813882358464</v>
+        <v>3.752756192172625</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.50936957681222</v>
+        <v>-4.429929848348492</v>
       </c>
       <c r="G26" t="n">
-        <v>1.669797181469353</v>
+        <v>1.66597541850885</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.873448548704697</v>
       </c>
       <c r="E27" t="n">
-        <v>3.913944808782249</v>
+        <v>3.872458004349845</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.507331831831205</v>
+        <v>-4.417743328266727</v>
       </c>
       <c r="G27" t="n">
-        <v>1.632866484492258</v>
+        <v>1.628551295704266</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.783172624876601</v>
       </c>
       <c r="E28" t="n">
-        <v>3.81574026077769</v>
+        <v>3.76667946138143</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.391402074079332</v>
+        <v>-4.304990952280375</v>
       </c>
       <c r="G28" t="n">
-        <v>1.576182286557324</v>
+        <v>1.570321558774452</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.700731338618758</v>
       </c>
       <c r="E29" t="n">
-        <v>3.731227212124772</v>
+        <v>3.675558532116623</v>
       </c>
       <c r="F29" t="n">
-        <v>-4.385589834990262</v>
+        <v>-4.298918277062333</v>
       </c>
       <c r="G29" t="n">
-        <v>1.554181227905668</v>
+        <v>1.544418227632962</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.628963601815822</v>
       </c>
       <c r="E30" t="n">
-        <v>3.632581081550248</v>
+        <v>3.574293402156143</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.202698410939912</v>
+        <v>-4.111060878861901</v>
       </c>
       <c r="G30" t="n">
-        <v>1.475703344349172</v>
+        <v>1.459642303168366</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.563849790441749</v>
       </c>
       <c r="E31" t="n">
-        <v>3.481595218021266</v>
+        <v>3.426068039610124</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.176974396477386</v>
+        <v>-4.086188313664115</v>
       </c>
       <c r="G31" t="n">
-        <v>1.357674544588272</v>
+        <v>1.338434596840254</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.502020977845474</v>
       </c>
       <c r="E32" t="n">
-        <v>3.284315155285754</v>
+        <v>3.226354393374386</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.072429113117355</v>
+        <v>-3.985218385311181</v>
       </c>
       <c r="G32" t="n">
-        <v>1.321508078219142</v>
+        <v>1.303143366642258</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.438477450820648</v>
       </c>
       <c r="E33" t="n">
-        <v>3.075747900506341</v>
+        <v>3.016506305173802</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.989535708821542</v>
+        <v>-3.902896171729142</v>
       </c>
       <c r="G33" t="n">
-        <v>1.173188787888903</v>
+        <v>1.155465102943281</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.371482823225413</v>
       </c>
       <c r="E34" t="n">
-        <v>2.825579176207297</v>
+        <v>2.769344489811127</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.779553743032412</v>
+        <v>-3.689567876147034</v>
       </c>
       <c r="G34" t="n">
-        <v>1.064187424064551</v>
+        <v>1.045001149336087</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.299391490008021</v>
       </c>
       <c r="E35" t="n">
-        <v>2.593891048413719</v>
+        <v>2.538411443815363</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.709062160817255</v>
+        <v>-3.620735278172632</v>
       </c>
       <c r="G35" t="n">
-        <v>1.012993732061702</v>
+        <v>0.9950175399559068</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.22325617032642</v>
       </c>
       <c r="E36" t="n">
-        <v>2.382000945787384</v>
+        <v>2.331368990727821</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.501649180918589</v>
+        <v>-3.413674832425126</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9338443258401069</v>
+        <v>0.9147708864368416</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.142872791492531</v>
       </c>
       <c r="E37" t="n">
-        <v>2.092732646584729</v>
+        <v>2.041893318495071</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.439949910219094</v>
+        <v>-3.35149738391506</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8965739030460633</v>
+        <v>0.8822663838109074</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.058349603922148</v>
       </c>
       <c r="E38" t="n">
-        <v>1.856154784725662</v>
+        <v>1.808273571918232</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.336174346753118</v>
+        <v>-3.250317947809663</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8719160299264929</v>
+        <v>0.8559092716859168</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.9685210262312265</v>
       </c>
       <c r="E39" t="n">
-        <v>1.642122640682587</v>
+        <v>1.596771988762985</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.203100328698536</v>
+        <v>-3.114971060353178</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7581883907780197</v>
+        <v>0.7369241163038754</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.8731789113876178</v>
       </c>
       <c r="E40" t="n">
-        <v>1.399834701447805</v>
+        <v>1.350352446863911</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.133337906652431</v>
+        <v>-3.05195771555563</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6681537302385017</v>
+        <v>0.6509167619929248</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.7721564506286027</v>
       </c>
       <c r="E41" t="n">
-        <v>1.107092294070393</v>
+        <v>1.051179645791545</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.987681529996874</v>
+        <v>-2.906641369677359</v>
       </c>
       <c r="G41" t="n">
-        <v>0.628772371982233</v>
+        <v>0.6120873819491132</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6675478578244005</v>
       </c>
       <c r="E42" t="n">
-        <v>0.8387296359839542</v>
+        <v>0.7805676002492594</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.930788129269815</v>
+        <v>-2.84602135361537</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6087810019604619</v>
+        <v>0.5952230752370293</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.561962775517207</v>
       </c>
       <c r="E43" t="n">
-        <v>0.6584712394951262</v>
+        <v>0.5995858378378082</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.813884023236838</v>
+        <v>-2.726930681956251</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5377783062181902</v>
+        <v>0.5225083321551258</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4591139946944313</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4590906099488931</v>
+        <v>0.4005546928393517</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.736095959965744</v>
+        <v>-2.645584951377686</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5135406684448992</v>
+        <v>0.5035202816466053</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3618675677091539</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4028980080794177</v>
+        <v>0.3476611519104066</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.644857925931002</v>
+        <v>-2.560815736040534</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4527187686389061</v>
+        <v>0.4425733481018789</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2725831639876752</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2149228951883733</v>
+        <v>0.1658017136451149</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.591482547667426</v>
+        <v>-2.509488471409478</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3429775710336583</v>
+        <v>0.3347168053877826</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1919299440358166</v>
       </c>
       <c r="E47" t="n">
-        <v>0.08915115243615623</v>
+        <v>0.04311068023115233</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.521563680967736</v>
+        <v>-2.438163127629206</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3188484991408284</v>
+        <v>0.3137160166459935</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1199742201912676</v>
       </c>
       <c r="E48" t="n">
-        <v>0.01680968080842258</v>
+        <v>-0.02438314185778776</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.426943026859749</v>
+        <v>-2.335975797605483</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2563932317625039</v>
+        <v>0.2488765693422609</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.05585404246097748</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.08618457427063823</v>
+        <v>-0.1261148611359801</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.330124218632762</v>
+        <v>-2.238404347263389</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2118873199801982</v>
+        <v>0.2039571313411199</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.001525513332933043</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.1729598187136147</v>
+        <v>-0.2103723530253405</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.274387227508818</v>
+        <v>-2.179746446018498</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1687903249611804</v>
+        <v>0.1582752924940439</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.0534708047804081</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.2287132776958314</v>
+        <v>-0.268803973699158</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.162957159549654</v>
+        <v>-2.069233088836488</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1376605835406363</v>
+        <v>0.1340089884489457</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1008110471442393</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.3361203088711644</v>
+        <v>-0.3757072103954971</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.111584760788519</v>
+        <v>-2.021172559350094</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06875662484705466</v>
+        <v>0.06535875675689123</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1443614964307674</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.4422721232937499</v>
+        <v>-0.4784239515666375</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.050915341151713</v>
+        <v>-1.963876610976381</v>
       </c>
       <c r="G53" t="n">
-        <v>0.05978408177141399</v>
+        <v>0.05272485985873197</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1847892156045903</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.541736157495793</v>
+        <v>-0.5816225300724089</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.012915453228279</v>
+        <v>-1.927288079498942</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.002216794702733093</v>
+        <v>-0.01422735266925585</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2227457155260736</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.5188415650527011</v>
+        <v>-0.5646331896215918</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.984200997687657</v>
+        <v>-1.902838189330143</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.01718729771351418</v>
+        <v>-0.02597076537936296</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2587605643679543</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.5581997463232533</v>
+        <v>-0.6043518340121021</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.971902557161709</v>
+        <v>-1.893801604583444</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.08955011656493402</v>
+        <v>-0.09639464639940072</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2935735939184217</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.6981411662376812</v>
+        <v>-0.7489048641634221</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.944898319198689</v>
+        <v>-1.865738544325589</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.09761692743560382</v>
+        <v>-0.1017845154198233</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.3279245292325309</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.7485553796156454</v>
+        <v>-0.8008969423321335</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.900499753455491</v>
+        <v>-1.81976089395029</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1271938108131474</v>
+        <v>-0.1328380167557739</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.3630093072000143</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.7865083036469701</v>
+        <v>-0.8399080787376161</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.911943695113315</v>
+        <v>-1.837036897119179</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1366128158241676</v>
+        <v>-0.1436336127342145</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3996649402565352</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.9273304490186222</v>
+        <v>-0.9863927276721971</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.941725511838245</v>
+        <v>-1.866026426885014</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1767596245297551</v>
+        <v>-0.1806289613030448</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.4386786794104414</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.016030603117416</v>
+        <v>-1.082781541822077</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.898108864402638</v>
+        <v>-1.822035288153883</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.146167223225426</v>
+        <v>-0.1531471554501308</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.4801641124663875</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.007553925551971</v>
+        <v>-1.070263529852499</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.838331148795238</v>
+        <v>-1.761502490748669</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.19328237566286</v>
+        <v>-0.1981690601249654</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.5242589988753843</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.111000741773179</v>
+        <v>-1.176997818521379</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.870442862505346</v>
+        <v>-1.790958609832216</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2452098022398361</v>
+        <v>-0.2505386791925839</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.5702699526500854</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.178766588483949</v>
+        <v>-1.248443926595647</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.890869105969639</v>
+        <v>-1.813627531624911</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2283747717202362</v>
+        <v>-0.2340635018722654</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.6174837383011039</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.230983117461703</v>
+        <v>-1.301912012802088</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.93976278710047</v>
+        <v>-1.864837081565355</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2553210672189654</v>
+        <v>-0.2598064238757706</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.6640004567554372</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.243837805644845</v>
+        <v>-1.309973944307344</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.98836980551323</v>
+        <v>-1.908989239355147</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3008120008942193</v>
+        <v>-0.3084970014212449</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.7085855235601192</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.266605534587174</v>
+        <v>-1.326683941088211</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.035245869045379</v>
+        <v>-1.957584669275048</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3059761992642451</v>
+        <v>-0.3175476143435093</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.7499272169396386</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.312874117125281</v>
+        <v>-1.374421212615928</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.081105804730065</v>
+        <v>-2.003447654563119</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3444329177745637</v>
+        <v>-0.3533292207656109</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.7878173263456046</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.254175351195048</v>
+        <v>-1.309259727194872</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.201333368530642</v>
+        <v>-2.12303114212905</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3070026957632121</v>
+        <v>-0.3167522777810298</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.8215453922197128</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.286401120071709</v>
+        <v>-1.341414135352353</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.219163789594695</v>
+        <v>-2.139437398412896</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3144766637360828</v>
+        <v>-0.3223855051514749</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.8514550496450808</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.332340955365049</v>
+        <v>-1.388272511184876</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.276033403415361</v>
+        <v>-2.2013187304344</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.3171712932859557</v>
+        <v>-0.3270684761075465</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.8774517729622885</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.281429046714858</v>
+        <v>-1.333950536030987</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.413987091844267</v>
+        <v>-2.346177940765448</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.3493604669220112</v>
+        <v>-0.3568216265606702</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.9003690230564162</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.299824864246257</v>
+        <v>-1.351708376534507</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.447449779853372</v>
+        <v>-2.388230141665196</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.3766409989515984</v>
+        <v>-0.3839222319906167</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.9195871545461773</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.250471302925157</v>
+        <v>-1.294769841677369</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.504121779374771</v>
+        <v>-2.446265313899127</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.3907801800799718</v>
+        <v>-0.3982681762284078</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.9352168007329941</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.193035682716469</v>
+        <v>-1.23415348513944</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.59446018041131</v>
+        <v>-2.542273537546716</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.3933790520835954</v>
+        <v>-0.3983657635366875</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.9463761832697365</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.083042587871725</v>
+        <v>-1.117638508498228</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.600517302652095</v>
+        <v>-2.546543592204629</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.3666248815980418</v>
+        <v>-0.3699892040509841</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.9530249671011372</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.9951713159726319</v>
+        <v>-1.025336162882561</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.627336124729384</v>
+        <v>-2.572569517402146</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.3243140743313522</v>
+        <v>-0.3246019568907773</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.9538834677272447</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.8187127252999443</v>
+        <v>-0.8442257072083156</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.643526469093661</v>
+        <v>-2.59556291699487</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.3388289665966026</v>
+        <v>-0.3363112140429865</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.9481309303632017</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.661922856611028</v>
+        <v>-0.6781132009753053</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.645929556560048</v>
+        <v>-2.594694999871858</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3201599046020212</v>
+        <v>-0.3178385465063181</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.9332492741609373</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.5171905097807441</v>
+        <v>-0.5328422941874528</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.709044758110614</v>
+        <v>-2.672620905215897</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2688942419593167</v>
+        <v>-0.2633732399933933</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.9079477595350488</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.2223267982896025</v>
+        <v>-0.2336060613647043</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.721805518509537</v>
+        <v>-2.690611735417935</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2503380152899338</v>
+        <v>-0.2418521889143381</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.8705102404665188</v>
       </c>
       <c r="E82" t="n">
-        <v>0.08424007114698087</v>
+        <v>0.08760317375856966</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.683885530194757</v>
+        <v>-2.664953592388497</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.1661427353096016</v>
+        <v>-0.1553794651270287</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.8213066827905811</v>
       </c>
       <c r="E83" t="n">
-        <v>0.235043568393615</v>
+        <v>0.2321604733546269</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.668011734661712</v>
+        <v>-2.652123301032425</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1154034342109307</v>
+        <v>-0.09911062317295982</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.7602917726337983</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4898848949972258</v>
+        <v>0.4913810304172888</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.581580485480421</v>
+        <v>-2.574739615170015</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.09906792872558745</v>
+        <v>-0.08016953655654888</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.6897236563025932</v>
       </c>
       <c r="E85" t="n">
-        <v>0.6751092656361365</v>
+        <v>0.6800313254974933</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.527530534948362</v>
+        <v>-2.524813948254126</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.07544631083581192</v>
+        <v>-0.05992687921595759</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.6116246622184907</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9481042712624764</v>
+        <v>0.9500822440171705</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.526045988021157</v>
+        <v>-2.524133886699552</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.06667321182146786</v>
+        <v>-0.04813528277238738</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.5297868585346098</v>
       </c>
       <c r="E87" t="n">
-        <v>1.11134649079071</v>
+        <v>1.112111331319352</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.411782838518499</v>
+        <v>-2.411013118624443</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.0283738528457503</v>
+        <v>-0.007199236711087978</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.4467250797138857</v>
       </c>
       <c r="E88" t="n">
-        <v>1.288386335868339</v>
+        <v>1.291083405100919</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.244510263158314</v>
+        <v>-2.248464378905672</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.007002232332498355</v>
+        <v>0.01264331266555659</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.3661631067976995</v>
       </c>
       <c r="E89" t="n">
-        <v>1.37202109874674</v>
+        <v>1.372734705938535</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.036133913550724</v>
+        <v>-2.040876656733117</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03412593874197669</v>
+        <v>0.05124519229694117</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.2908792104463939</v>
       </c>
       <c r="E90" t="n">
-        <v>1.417454699878379</v>
+        <v>1.413259665463706</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.835338877955112</v>
+        <v>-1.843086700311843</v>
       </c>
       <c r="G90" t="n">
-        <v>0.02956068247651747</v>
+        <v>0.04561928397461709</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.2242868467948992</v>
       </c>
       <c r="E91" t="n">
-        <v>1.456912298219241</v>
+        <v>1.454980069515303</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.492754972715202</v>
+        <v>-1.493447842603988</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02472401150990538</v>
+        <v>0.04068197609634156</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.168060996604961</v>
       </c>
       <c r="E92" t="n">
-        <v>1.495388534191216</v>
+        <v>1.492267570088296</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.240747337575763</v>
+        <v>-1.247681525749712</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02707647556012263</v>
+        <v>0.03794221241638929</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.123806539718131</v>
       </c>
       <c r="E93" t="n">
-        <v>1.538594095090695</v>
+        <v>1.536161731431823</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.9636920900043111</v>
+        <v>-0.9717387734926483</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04340771160072864</v>
+        <v>0.05935225793227637</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.09140945383573006</v>
       </c>
       <c r="E94" t="n">
-        <v>1.576567756425029</v>
+        <v>1.577827242622514</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.7006265929954295</v>
+        <v>-0.7032541312708601</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03827461918521698</v>
+        <v>0.05498705564879051</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.07117964917617958</v>
       </c>
       <c r="E95" t="n">
-        <v>1.561502715709352</v>
+        <v>1.573386410175111</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.4679857691047713</v>
+        <v>-0.4751614858667122</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.01953000303290347</v>
+        <v>-0.002089931201969497</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.06040609345040627</v>
       </c>
       <c r="E96" t="n">
-        <v>1.482468584495662</v>
+        <v>1.502434337849009</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.2859396951123947</v>
+        <v>-0.289778535851847</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.0673642519482234</v>
+        <v>-0.05630456031675087</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.05552294263322145</v>
       </c>
       <c r="E97" t="n">
-        <v>1.399443742294009</v>
+        <v>1.4188575174349</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1285039204268022</v>
+        <v>-0.140754177219287</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.07648561566899061</v>
+        <v>-0.06297221315496064</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.05052701417813689</v>
       </c>
       <c r="E98" t="n">
-        <v>1.344227013507331</v>
+        <v>1.366698321000759</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.01235794579502305</v>
+        <v>-0.0255322324127811</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1329374338260839</v>
+        <v>-0.1144074337458011</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.04210519843414084</v>
       </c>
       <c r="E99" t="n">
-        <v>1.277948153406473</v>
+        <v>1.297832177389136</v>
       </c>
       <c r="F99" t="n">
-        <v>0.104768781284967</v>
+        <v>0.09402258888134297</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1552824877394257</v>
+        <v>-0.1389024580446799</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.02692877661527164</v>
       </c>
       <c r="E100" t="n">
-        <v>1.120933833908513</v>
+        <v>1.134505178886834</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1510617606501446</v>
+        <v>0.140977942101469</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1283666882745339</v>
+        <v>-0.1098525461318466</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.00798956098389246</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9965807666504121</v>
+        <v>1.00650295621975</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2179755481754973</v>
+        <v>0.2073116950632342</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.2067207579336499</v>
+        <v>-0.1880858514969665</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.01448784338233381</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8519155110945705</v>
+        <v>0.8530151980747472</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2022103185229135</v>
+        <v>0.1933500008517945</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1893746138869352</v>
+        <v>-0.169732118492264</v>
       </c>
     </row>
   </sheetData>
